--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4816.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4816.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Marnus Labuschagne</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1944,7 +2008,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2043,7 +2106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2065,7 +2128,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2102,7 +2165,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2139,7 +2202,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2176,7 +2239,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2213,7 +2276,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2250,7 +2313,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2287,7 +2350,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2324,7 +2387,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2361,7 +2424,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2398,7 +2461,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2424,6 +2487,519 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>0/36</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.99%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.51%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>18.90%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>19.48%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.98%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10.41%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4816.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4816.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4816.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4816.xlsx
@@ -2501,7 +2501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,10 +2544,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -2560,13 +2562,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15.13%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2576,15 +2592,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2594,7 +2610,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.42%</t>
+          <t>18.88%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2606,7 +2622,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2614,7 +2630,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2624,7 +2640,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>18.89%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2636,7 +2652,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -2652,27 +2668,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.90%</t>
-        </is>
-      </c>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2682,13 +2684,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.71%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2698,25 +2714,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4597</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2728,13 +2744,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.19%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2744,7 +2774,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2752,17 +2782,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.51%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2774,27 +2804,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>18.90%</t>
-        </is>
-      </c>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2804,7 +2820,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -2820,25 +2836,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.56%</t>
+          <t>2.42%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2850,7 +2866,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2858,7 +2874,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2868,7 +2884,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19.48%</t>
+          <t>7.99%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2880,7 +2896,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -2896,13 +2912,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2912,7 +2942,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -2928,15 +2958,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2946,7 +2976,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.98%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2958,12 +2988,10 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -2976,28 +3004,260 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.51%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18.90%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19.48%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.98%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B31" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
